--- a/src/test/resources/pl/droidsonroids/gradle/localization/valid.xlsx
+++ b/src/test/resources/pl/droidsonroids/gradle/localization/valid.xlsx
@@ -5,106 +5,118 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="valid" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="additional" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>translatable</t>
-  </si>
-  <si>
-    <t>formatted</t>
-  </si>
-  <si>
-    <t>WinPhone</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>cow[one]</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>krowa</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Plik</t>
-  </si>
-  <si>
-    <t>file label</t>
-  </si>
-  <si>
-    <t>days[]</t>
-  </si>
-  <si>
-    <t>monday</t>
-  </si>
-  <si>
-    <t>cow[other]</t>
-  </si>
-  <si>
-    <t>cows</t>
-  </si>
-  <si>
-    <t>krowy</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>wednesday</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>%d %s</t>
-  </si>
-  <si>
-    <t>this line should be ignored</t>
-  </si>
-  <si>
-    <t>switch</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translatable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formatted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WinPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cow[one]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cow[other]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d %s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this line should be ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koral--</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -274,19 +286,19 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.33163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +440,65 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.3214285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>

--- a/src/test/resources/pl/droidsonroids/gradle/localization/valid.xlsx
+++ b/src/test/resources/pl/droidsonroids/gradle/localization/valid.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t xml:space="preserve">Android</t>
   </si>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">this line should be ignored</t>
   </si>
   <si>
-    <t xml:space="preserve">switch</t>
+    <t xml:space="preserve">empty</t>
   </si>
   <si>
     <t xml:space="preserve">copyright</t>
@@ -287,18 +287,18 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +423,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>28</v>
@@ -432,9 +432,6 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
